--- a/水头及轮灌组.xlsx
+++ b/水头及轮灌组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10760\Desktop\guanwang\GA_1\IrriOpt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoxiangmeng/PycharmProjects/DripIrrigationHydraulics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB0E37-889C-4946-A01D-6FC4E2D42A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996169EF-96DA-D94D-AE55-8C1935048FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="7635" windowWidth="28320" windowHeight="21285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="1040" windowWidth="18980" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>丰字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +124,10 @@
   </si>
   <si>
     <t>丰字布局参数-lgz2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口管径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,25 +506,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FE3E9D-9BFA-43A8-A27A-750F4BF60C3C}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -534,8 +548,11 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -560,8 +577,11 @@
       <c r="H2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,8 +606,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -598,7 +621,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -612,8 +635,11 @@
       <c r="H4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -638,8 +664,11 @@
       <c r="H5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -664,8 +693,11 @@
       <c r="H6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -690,8 +722,11 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -716,8 +751,11 @@
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -742,8 +780,11 @@
       <c r="H9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -768,8 +809,11 @@
       <c r="H10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -794,8 +838,11 @@
       <c r="H11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -820,8 +867,11 @@
       <c r="H12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -845,6 +895,9 @@
       </c>
       <c r="H13">
         <v>2</v>
+      </c>
+      <c r="I13">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -858,29 +911,29 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="32">
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
@@ -927,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -982,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1031,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1053,7 +1106,7 @@
         <v>7800</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -1080,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1129,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1178,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1227,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1276,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1325,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1374,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1423,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1472,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="4">
         <v>12</v>
       </c>
